--- a/漢字（かんじ）/w.xlsx
+++ b/漢字（かんじ）/w.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2F8D4-0348-4263-B8DD-CA44418C8621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2F4F4-E7D5-4035-B242-63E0B8BBA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9816" yWindow="3144" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="わ" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,8 @@
       <t>割引｜わりびき
 割箸｜わりばし
 割引券｜わりびきけん
-割引率｜わりびきりつ</t>
+割引率｜わりびきりつ
+時間割｜じかんわり</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,7 +489,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75.599999999999994" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="89.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>

--- a/漢字（かんじ）/w.xlsx
+++ b/漢字（かんじ）/w.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2F4F4-E7D5-4035-B242-63E0B8BBA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC608D1-D623-4834-9DBF-B6FDE66948E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>わ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,11 +49,6 @@
   <si>
     <t>迷惑｜めいわく
 疑惑｜ぎわく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和食｜わしょく
-和平｜わへい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,13 +99,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t xml:space="preserve">割合｜わりあい
 </t>
     </r>
@@ -130,12 +118,43 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>和食｜わしょく
+和平｜わへい
+和室｜わしつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪口｜わるくち
+悪者｜わるもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若者｜わかもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +175,6 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -193,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -202,10 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -499,16 +507,16 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,18 +535,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -554,24 +562,46 @@
     </row>
     <row r="6" spans="1:3" ht="89.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/w.xlsx
+++ b/漢字（かんじ）/w.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC608D1-D623-4834-9DBF-B6FDE66948E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BDE64-83EB-4EDB-A2FF-9C715E0364C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>連想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電話｜でんわ
-会話｜かいわ
-話題｜わだい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,34 +113,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>悪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪口｜わるくち
+悪者｜わるもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若者｜わかもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話｜でんわ
+会話｜かいわ
+話題｜わだい
+世話｜せわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>和食｜わしょく
 和平｜わへい
-和室｜わしつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>わる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悪口｜わるくち
-悪者｜わるもの</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>わか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若者｜わかもの</t>
+和室｜わしつ
+和菓子｜わがし</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +499,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -543,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -562,46 +564,46 @@
     </row>
     <row r="6" spans="1:3" ht="89.4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
